--- a/Copy of Kit Given.xlsx
+++ b/Copy of Kit Given.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Kumar Singh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nidhish\Desktop\Cyber-Srishti\Cyber-Srishti-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>GRP NO</t>
   </si>
@@ -35,9 +35,6 @@
     <t>ENR NO</t>
   </si>
   <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
     <t>HARSHIT KAMBOJ</t>
   </si>
   <si>
@@ -278,25 +275,10 @@
     <t>ABHHINAV</t>
   </si>
   <si>
-    <t>KIT GIVEN</t>
-  </si>
-  <si>
     <t xml:space="preserve">yash </t>
   </si>
   <si>
     <t xml:space="preserve">urvi </t>
-  </si>
-  <si>
-    <t>slip not given</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>slip no</t>
-  </si>
-  <si>
-    <t>whatsapp</t>
   </si>
   <si>
     <t>kapil</t>
@@ -360,8 +342,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -636,21 +646,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I53" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,1442 +670,931 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>17102046</v>
       </c>
-      <c r="D2">
-        <v>9899168157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>17103035</v>
       </c>
-      <c r="D3">
-        <v>8377033019</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>17102081</v>
       </c>
-      <c r="D4">
-        <v>8290050862</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>17104025</v>
       </c>
-      <c r="D5">
-        <v>995622300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>17104011</v>
       </c>
-      <c r="D6">
-        <v>8209911724</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>17102127</v>
       </c>
-      <c r="D7">
-        <v>7518597170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>17102175</v>
       </c>
-      <c r="D8">
-        <v>8107139676</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>17103183</v>
       </c>
-      <c r="D9">
-        <v>8826259035</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>17102265</v>
       </c>
-      <c r="D10">
-        <v>8285220619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>17102147</v>
       </c>
-      <c r="D11">
-        <v>9012624942</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>17102235</v>
       </c>
-      <c r="D12">
-        <v>9382304959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>17102250</v>
       </c>
-      <c r="D13">
-        <v>9634215260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>17104046</v>
       </c>
-      <c r="D14">
-        <v>9521556241</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>17103300</v>
       </c>
-      <c r="D15">
-        <v>8533888387</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>17104061</v>
       </c>
-      <c r="D16">
-        <v>9560598456</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>17102055</v>
       </c>
-      <c r="D17">
-        <v>8448762590</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>17802012</v>
       </c>
-      <c r="D18">
-        <v>9166896635</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>17103217</v>
       </c>
-      <c r="D19">
-        <v>8130648232</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>17802002</v>
       </c>
-      <c r="D20">
-        <v>7838375235</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>17103027</v>
       </c>
-      <c r="D21">
-        <v>8448603554</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>17103187</v>
       </c>
-      <c r="D22">
-        <v>8587863645</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>17102204</v>
       </c>
-      <c r="D23">
-        <v>7351868650</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>17104031</v>
       </c>
-      <c r="D24">
-        <v>9968068330</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>991710245</v>
       </c>
-      <c r="D25">
-        <v>8130906810</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>17102063</v>
       </c>
-      <c r="D26">
-        <v>9821149730</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>17102062</v>
       </c>
-      <c r="D27">
-        <v>9079020091</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>17103304</v>
       </c>
-      <c r="D28">
-        <v>7976263241</v>
-      </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>17102129</v>
       </c>
-      <c r="D29">
-        <v>8130482465</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>17103299</v>
       </c>
-      <c r="D30">
-        <v>7727906300</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>17102125</v>
       </c>
-      <c r="D31">
-        <v>8802671082</v>
-      </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>17102027</v>
       </c>
-      <c r="D32">
-        <v>8005989349</v>
-      </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>17102071</v>
       </c>
-      <c r="D33">
-        <v>9478012050</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>17103318</v>
       </c>
-      <c r="D34">
-        <v>9582226481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>17103205</v>
       </c>
-      <c r="D35">
-        <v>8874557009</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>17103279</v>
       </c>
-      <c r="D36">
-        <v>9454882288</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>17102086</v>
       </c>
-      <c r="D37">
-        <v>8865944896</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>17102232</v>
       </c>
-      <c r="D38">
-        <v>8826461690</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>17102005</v>
       </c>
-      <c r="D39">
-        <v>8877974992</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>17103069</v>
       </c>
-      <c r="D40">
-        <v>9818324718</v>
-      </c>
-      <c r="E40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>17103019</v>
       </c>
-      <c r="D41">
-        <v>9504622372</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>17103114</v>
       </c>
-      <c r="D42">
-        <v>9599778897</v>
-      </c>
-      <c r="E42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>17104047</v>
       </c>
-      <c r="D43">
-        <v>8209911724</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>17103327</v>
       </c>
-      <c r="D44">
-        <v>8368887869</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>17103021</v>
       </c>
-      <c r="D45">
-        <v>9457054445</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>17103305</v>
       </c>
-      <c r="D46">
-        <v>9871613099</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>17103141</v>
       </c>
-      <c r="D47">
-        <v>9654737727</v>
-      </c>
-      <c r="E47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>17103089</v>
       </c>
-      <c r="D48">
-        <v>9999842724</v>
-      </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>17102236</v>
       </c>
-      <c r="D49">
-        <v>8860046211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>17104022</v>
       </c>
-      <c r="D50">
-        <v>9616686179</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>17104060</v>
       </c>
-      <c r="D51">
-        <v>8447944871</v>
-      </c>
-      <c r="E51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52">
         <v>17102015</v>
       </c>
-      <c r="D52">
-        <v>8092100303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>17102116</v>
       </c>
-      <c r="D53">
-        <v>8210550248</v>
-      </c>
-      <c r="E53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <v>17103150</v>
       </c>
-      <c r="D54">
-        <v>8765200733</v>
-      </c>
-      <c r="E54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>17102097</v>
       </c>
-      <c r="D55">
-        <v>9760985582</v>
-      </c>
-      <c r="E55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>17103216</v>
       </c>
-      <c r="D56">
-        <v>7607221112</v>
-      </c>
-      <c r="E56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57">
         <v>17103083</v>
       </c>
-      <c r="D57">
-        <v>9918932200</v>
-      </c>
-      <c r="E57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58">
         <v>17103272</v>
       </c>
-      <c r="D58">
-        <v>7976871194</v>
-      </c>
-      <c r="E58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>9917103261</v>
       </c>
-      <c r="D59">
-        <v>8200995426</v>
-      </c>
-      <c r="E59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>17103074</v>
       </c>
-      <c r="D60">
-        <v>9838608240</v>
-      </c>
-      <c r="E60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>17102012</v>
       </c>
-      <c r="D61">
-        <v>7893878901</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62">
         <v>17102266</v>
       </c>
-      <c r="D62">
-        <v>8587914946</v>
-      </c>
-      <c r="E62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63">
         <v>17102025</v>
       </c>
-      <c r="D63">
-        <v>7248568872</v>
-      </c>
-      <c r="E63" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64">
         <v>17102218</v>
       </c>
-      <c r="D64">
-        <v>8318643373</v>
-      </c>
-      <c r="E64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65">
         <v>17102103</v>
       </c>
-      <c r="D65">
-        <v>7836965995</v>
-      </c>
-      <c r="E65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66">
         <v>17103254</v>
       </c>
-      <c r="D66">
-        <v>9899880773</v>
-      </c>
-      <c r="E66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C67">
         <v>17102169</v>
       </c>
-      <c r="D67">
-        <v>9729973400</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68">
         <v>17102197</v>
       </c>
-      <c r="D68">
-        <v>8223880282</v>
-      </c>
-      <c r="E68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69">
         <v>9917102110</v>
       </c>
-      <c r="D69">
-        <v>9560785592</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>17102089</v>
       </c>
-      <c r="D70">
-        <v>8130655720</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71">
         <v>9917102184</v>
       </c>
-      <c r="D71">
-        <v>7355962856</v>
-      </c>
-      <c r="E71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72">
         <v>9917103102</v>
       </c>
-      <c r="D72">
-        <v>8619076613</v>
-      </c>
-      <c r="E72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>176</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>17102113</v>
       </c>
-      <c r="D73">
-        <v>9521399173</v>
-      </c>
-      <c r="E73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>17104036</v>
       </c>
-      <c r="D74">
-        <v>8859056790</v>
-      </c>
-      <c r="E74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>17103103</v>
       </c>
-      <c r="D75">
-        <v>7007754283</v>
-      </c>
-      <c r="E75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>17102189</v>
       </c>
-      <c r="D76">
-        <v>8077678192</v>
-      </c>
-      <c r="E76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>17103055</v>
       </c>
-      <c r="D77">
-        <v>9045824682</v>
-      </c>
-      <c r="E77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>9917102047</v>
       </c>
-      <c r="D78">
-        <v>7877009203</v>
-      </c>
-      <c r="E78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>9917103130</v>
       </c>
-      <c r="D79">
-        <v>9896628306</v>
-      </c>
-      <c r="E79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>9917103066</v>
       </c>
-      <c r="D80">
-        <v>9454615771</v>
-      </c>
-      <c r="E80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>17103316</v>
       </c>
-      <c r="D81">
-        <v>8171348214</v>
-      </c>
-      <c r="E81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>17104015</v>
       </c>
-      <c r="D82">
-        <v>9169559511</v>
-      </c>
-      <c r="E82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>9917102006</v>
       </c>
-      <c r="D83">
-        <v>7017712179</v>
-      </c>
-      <c r="E83" t="s">
-        <v>88</v>
-      </c>
-      <c r="H83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>9917103124</v>
       </c>
-      <c r="D84">
-        <v>7565824183</v>
-      </c>
-      <c r="E84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>17102043</v>
-      </c>
-      <c r="D85">
-        <v>9430565464</v>
-      </c>
-      <c r="E85" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
